--- a/medicine/Psychotrope/Brasserie_De_Ranke/Brasserie_De_Ranke.xlsx
+++ b/medicine/Psychotrope/Brasserie_De_Ranke/Brasserie_De_Ranke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie De Ranke est une  brasserie  belge située dans le village de Dottignies faisant partie de la commune de Mouscron à l'ouest de la province de Hainaut. 
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1994, Nino Bacelle, brasseur amateur issu d'une famille de négociants en bières et limonades, produit sa propre bière (la Guldenberg) en louant des installations à l'intérieur de la brasserie Deca à Woesten dans la commune flamande de Vleteren. Il en écoule 90 hl dès la première année. Deux années plus tard, en 1996, il s'associe avec Guido Devos, un autre passionné de bières, pour créer leur propre brasserie, la brasserie De Ranke à Wevelgem[1]. C'est dès cette année que sont brassées la Père Noël, une bière de Noël et la XX Bitter, une bière à forte amertume. En 2004, la brasserie déménage en franchissant la frontière linguistique pour venir s'établir en Wallonie à Dottignies en province du Hainaut. La Noir de Dottignies est produite dès 2009 tandis que la Saison de Dottignies voit le jour l'année suivante. En 2015, la production annuelle de la brasserie atteint les 5 000 hl dont environ la moitié est exportée vers plus de vingt pays.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, Nino Bacelle, brasseur amateur issu d'une famille de négociants en bières et limonades, produit sa propre bière (la Guldenberg) en louant des installations à l'intérieur de la brasserie Deca à Woesten dans la commune flamande de Vleteren. Il en écoule 90 hl dès la première année. Deux années plus tard, en 1996, il s'associe avec Guido Devos, un autre passionné de bières, pour créer leur propre brasserie, la brasserie De Ranke à Wevelgem. C'est dès cette année que sont brassées la Père Noël, une bière de Noël et la XX Bitter, une bière à forte amertume. En 2004, la brasserie déménage en franchissant la frontière linguistique pour venir s'établir en Wallonie à Dottignies en province du Hainaut. La Noir de Dottignies est produite dès 2009 tandis que la Saison de Dottignies voit le jour l'année suivante. En 2015, la production annuelle de la brasserie atteint les 5 000 hl dont environ la moitié est exportée vers plus de vingt pays.
 Le nom de la brasserie De Ranke signifie la branche en français faisant référence à la tige du houblon.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Brasserie De Ranke produit et commercialise neuf bières non filtrées principalement de fermentation haute :
 Guldenberg, une bière d'abbaye blonde titrant 8 % en vol. d'alcool
@@ -583,9 +599,11 @@
           <t>Source et lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (nl) Bieren en Brouwerijen van België – Adelijn Calderon – 2009 –  (ISBN 978-90-7713-518-1)</t>
         </is>
       </c>
